--- a/ResultadoEleicoesDistritos/BRAGA_VILA VERDE.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_VILA VERDE.xlsx
@@ -597,64 +597,64 @@
         <v>13414</v>
       </c>
       <c r="H2" t="n">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="I2" t="n">
-        <v>1365</v>
+        <v>1411</v>
       </c>
       <c r="J2" t="n">
-        <v>5546</v>
+        <v>5505</v>
       </c>
       <c r="K2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="n">
-        <v>1491</v>
+        <v>1535</v>
       </c>
       <c r="M2" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N2" t="n">
-        <v>929</v>
+        <v>951</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>61</v>
+      </c>
+      <c r="S2" t="n">
+        <v>590</v>
+      </c>
+      <c r="T2" t="n">
+        <v>974</v>
+      </c>
+      <c r="U2" t="n">
+        <v>85</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8654</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8436</v>
+      </c>
+      <c r="Y2" t="n">
         <v>16</v>
       </c>
-      <c r="Q2" t="n">
-        <v>13</v>
-      </c>
-      <c r="R2" t="n">
-        <v>67</v>
-      </c>
-      <c r="S2" t="n">
-        <v>605</v>
-      </c>
-      <c r="T2" t="n">
-        <v>930</v>
-      </c>
-      <c r="U2" t="n">
-        <v>74</v>
-      </c>
-      <c r="V2" t="n">
-        <v>8534</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>8652</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>11</v>
-      </c>
       <c r="Z2" t="n">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
